--- a/Plan mantenimineto de Sw/Escenarios_Pruebas_Unitarias_KPOS.xlsx
+++ b/Plan mantenimineto de Sw/Escenarios_Pruebas_Unitarias_KPOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACDB\Documents\GitHub\k-pos_repositorio\Plan mantenimineto de Sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B14007-3A46-43DB-9180-8C517B0CC1CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C4EFF-C46D-4D81-82CB-F656484C6764}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="928" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="928" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resum.Pruebas" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
   <si>
     <t>TIPO DE PRUEBA</t>
   </si>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t>3) Clasificación de Documento con base en la TRD</t>
   </si>
   <si>
     <t xml:space="preserve">Ingresar por la URL  </t>
@@ -1486,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1609,6 +1606,138 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1618,6 +1747,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1636,12 +1798,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1681,164 +1837,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1849,9 +1864,129 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1867,15 +2002,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,161 +2017,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2509,7 +2485,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4291C03A-B281-4130-97D3-5689ABE1054F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2529,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589F8D63-8157-4157-9D23-AC4D93D53094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2573,7 @@
         <xdr:cNvPr id="18" name="Imagen 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD568E2C-5D56-4ECF-B0D2-13FFF2454CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2617,7 @@
         <xdr:cNvPr id="25" name="Imagen 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8603BC4B-0EFF-40CA-BD69-A1A639598132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2661,7 @@
         <xdr:cNvPr id="26" name="Imagen 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3EFA0F-66E0-45E6-A48B-5FA0D42C8F99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2705,7 @@
         <xdr:cNvPr id="27" name="Imagen 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94467E0A-1733-4537-BD8E-EF0C55FDEC48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2749,7 @@
         <xdr:cNvPr id="28" name="Imagen 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF518D1B-F239-4582-92AC-C8EDDCE98234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2793,7 @@
         <xdr:cNvPr id="30" name="Imagen 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB030F8-9630-47CA-A4C3-3132660A6391}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2837,7 @@
         <xdr:cNvPr id="31" name="Imagen 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC33D622-5AAB-485B-9872-1340499D100F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2881,7 @@
         <xdr:cNvPr id="32" name="Imagen 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFC2457-BE2A-4426-940D-E5EBBABA1DF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2925,7 @@
         <xdr:cNvPr id="33" name="Imagen 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10159DD3-1C64-41E5-8FAF-8B3BAC8DD78E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2969,7 @@
         <xdr:cNvPr id="34" name="Imagen 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD0726B-4C94-44A7-A327-34BAA18D5FF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,50 +3002,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>81642</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>3394978</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2857500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A74D911-BD03-4972-A661-799D7A408A81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8968467" y="28481112"/>
-          <a:ext cx="8647336" cy="2789463"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3086,7 +3018,7 @@
         <xdr:cNvPr id="3" name="Imagen 2" descr="Resultado de imagen para universidad catolica de colombia png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84CF063-D945-488E-888C-C0950BA8F1BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3147,7 +3079,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BCD07B-FC54-48A3-9C83-D6571D5D9CA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3088,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3191,7 +3123,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D46C19-1857-4DD5-A9D9-825696E0CEDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3132,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3235,7 +3167,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA1BA56-820B-4468-B716-4FE14CD61335}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3176,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3279,7 +3211,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01D2884-89E3-430B-9B9B-D388A5E8BF02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,7 +3220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3323,7 +3255,7 @@
         <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AC1A20-9635-4961-B821-3C0715F181E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3367,7 +3299,7 @@
         <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D254B5-4281-4177-9E46-106834B924D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,7 +3308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3411,7 +3343,7 @@
         <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD2525E-F334-4ED0-A6E6-EE4F5958587D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3352,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,13 +3373,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>329046</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>588818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1547617</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>3293580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3455,7 +3387,7 @@
         <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D312D7-AEBD-4F10-8F5F-5FA2439FF1D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3396,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3485,13 +3417,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>225136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1143258</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>3939422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3499,7 +3431,7 @@
         <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6BBE1D-4646-43F0-931F-832A597C3F3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3440,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3529,13 +3461,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>502227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1440344</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>3492703</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3543,7 +3475,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124F8F30-85C7-476C-BD8F-640541D40126}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3484,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3573,13 +3505,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>606136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1492204</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2796612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3587,7 +3519,7 @@
         <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F34546-B44E-434E-9F02-FA7B96233A5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3617,13 +3549,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>519546</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>3948545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1004784</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>2898697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3631,7 +3563,7 @@
         <xdr:cNvPr id="15" name="Imagen 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64320E0E-DCAC-4AA4-8D2E-3F4DB8B5D7AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3640,7 +3572,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3661,13 +3593,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>3082637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1159723</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>3220777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3675,7 +3607,7 @@
         <xdr:cNvPr id="16" name="Imagen 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6EA4F7-D02E-4FF8-A5C6-9F1CC86631A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3684,7 +3616,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3724,7 +3656,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para universidad catolica de colombia png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C49054-DF5A-4C67-B66C-667788BAFE12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3717,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD1770D-267F-480E-A8C1-C23504BF071E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3761,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31140DFD-242C-4B49-AF48-7F7DDE5E1D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,7 +3805,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68048F1-290F-4E9E-B6A3-A4E115E74BEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,7 +3849,7 @@
         <xdr:cNvPr id="16" name="Imagen 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541837AA-5AF2-4F24-BB0E-09BC948E67C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,7 +3893,7 @@
         <xdr:cNvPr id="17" name="Imagen 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557AEC21-210C-4FF7-BCD1-A5BD1217019F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4010,7 +3942,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para universidad catolica de colombia png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354CED01-261D-4034-834B-D05065AEDDFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4071,7 +4003,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8567816-EF9D-4E83-A69C-CAACFE7A135C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,7 +4047,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD848159-9C97-4213-8DD0-DAC5CA3DE059}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4159,7 +4091,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF48C93-4405-4AD3-A0CD-E04368AB3C57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4135,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDDC15F-2D3C-43AB-B560-877844D0178E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,7 +4179,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A178AF93-D072-4E63-8C3D-2C4B2346C858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4291,7 +4223,7 @@
         <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC921E-31A2-48C3-A098-A0952EFACC07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,7 +4267,7 @@
         <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E23069E-83B9-453D-BE7E-553964C7513A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4379,7 +4311,7 @@
         <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62498BD3-74FA-4B4B-8F8B-E94A450B91CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,7 +4355,7 @@
         <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9747A9-92EF-431C-9A2E-CC724DD55B04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4467,7 +4399,7 @@
         <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D190EE79-5554-4531-9704-6085FBA63D8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4511,7 +4443,7 @@
         <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B469193-0600-4A8E-A208-8DE34A1838EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4555,7 +4487,7 @@
         <xdr:cNvPr id="15" name="Imagen 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE4A71C-1AE7-41E0-87F3-20F4FEEE17F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,80 +4803,80 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:49" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:49" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="85"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:49" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:49" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:49" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="34" t="s">
         <v>1</v>
       </c>
@@ -4953,16 +4885,16 @@
         <v>3</v>
       </c>
       <c r="H7" s="36"/>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="56"/>
+      <c r="J7" s="111"/>
     </row>
     <row r="8" spans="1:49" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="40" t="s">
         <v>2</v>
       </c>
@@ -4971,69 +4903,69 @@
         <v>4</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:49" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="42" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
+    </row>
+    <row r="10" spans="1:49" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:49" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="82"/>
+      <c r="AW10" s="3"/>
+    </row>
+    <row r="11" spans="1:49" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
+    </row>
+    <row r="12" spans="1:49" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="AW10" s="3"/>
-    </row>
-    <row r="11" spans="1:49" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-    </row>
-    <row r="12" spans="1:49" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="9" t="s">
         <v>9</v>
       </c>
@@ -5054,62 +4986,62 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:49" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="105"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="119" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="120"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="46" t="s">
         <v>31</v>
       </c>
@@ -5127,15 +5059,15 @@
       <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="114"/>
+      <c r="B18" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="60"/>
       <c r="G18" s="48">
         <v>43603</v>
       </c>
@@ -5154,15 +5086,15 @@
       <c r="A19" s="27">
         <v>2</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="114"/>
+      <c r="B19" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="60"/>
       <c r="G19" s="48">
         <v>43603</v>
       </c>
@@ -5181,15 +5113,15 @@
       <c r="A20" s="27">
         <v>3</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="114"/>
+      <c r="B20" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="60"/>
       <c r="G20" s="48">
         <v>43603</v>
       </c>
@@ -5200,22 +5132,22 @@
         <v>2</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>4</v>
       </c>
-      <c r="B21" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="114"/>
+      <c r="B21" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="60"/>
       <c r="G21" s="48">
         <v>43603</v>
       </c>
@@ -5231,51 +5163,51 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="111" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="112"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="109" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="110"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="123" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="124"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="13">
         <f>COUNTIF(J18:J21,"Cancelado")</f>
         <v>0</v>
@@ -5283,10 +5215,10 @@
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="28">
         <f>SUM(J22:J24)</f>
         <v>8</v>
@@ -5297,13 +5229,26 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="37">
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="B17:D17"/>
@@ -5314,26 +5259,13 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A22:G24"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A7:D9"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 F8" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5607,7 +5539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -5629,147 +5561,147 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="140"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="85"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="str">
+      <c r="A5" s="166" t="str">
         <f>'Resum.Pruebas'!B17</f>
         <v>NOMBRE DE LA PRUEBA</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168" t="str">
         <f>+'Resum.Pruebas'!B19</f>
         <v>Gestion de Ventas</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
     </row>
     <row r="6" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="str">
+      <c r="A7" s="159" t="str">
         <f>'Resum.Pruebas'!E17</f>
         <v>OBJETIVO DE PRUEBA</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="152" t="str">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162" t="str">
         <f>+'Resum.Pruebas'!E19</f>
         <v>Validar el cumplimiento de la funcionaliad  de Gestion de Ventas</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="165"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="166"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
       <c r="I9" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="177"/>
     </row>
     <row r="11" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="177"/>
     </row>
     <row r="12" spans="1:17" s="24" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="137"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="183"/>
       <c r="F12" s="29" t="s">
         <v>37</v>
       </c>
@@ -5784,455 +5716,438 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="155"/>
     </row>
     <row r="15" spans="1:17" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143" t="s">
+      <c r="B15" s="186"/>
+      <c r="C15" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143" t="s">
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143" t="s">
+      <c r="G15" s="187"/>
+      <c r="H15" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="144"/>
+      <c r="I15" s="188"/>
     </row>
     <row r="16" spans="1:17" ht="324" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145">
+      <c r="A16" s="134">
         <v>1</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="129">
+      <c r="B16" s="134"/>
+      <c r="C16" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="135">
         <v>43609</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="147" t="s">
+      <c r="G16" s="135"/>
+      <c r="H16" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="132"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+    </row>
+    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134">
+        <v>2</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-    </row>
-    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145">
-        <v>2</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="135">
+        <v>43609</v>
+      </c>
+      <c r="G17" s="135"/>
+      <c r="H17" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="129">
+      <c r="I17" s="178"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+    </row>
+    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134">
+        <v>3</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="135">
         <v>43609</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145">
-        <v>3</v>
-      </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146" t="s">
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+    </row>
+    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="134">
+        <v>4</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="129">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="135">
         <v>43609</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-    </row>
-    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145">
-        <v>4</v>
-      </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146" t="s">
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+    </row>
+    <row r="20" spans="1:17" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="134">
+        <v>5</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="152" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="135">
+        <v>43609</v>
+      </c>
+      <c r="G20" s="135"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+    </row>
+    <row r="21" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134">
+        <v>6</v>
+      </c>
+      <c r="B21" s="134"/>
+      <c r="C21" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="129">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="135">
         <v>43609</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-    </row>
-    <row r="20" spans="1:17" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
-        <v>5</v>
-      </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="129">
+      <c r="G21" s="135"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+    </row>
+    <row r="22" spans="1:17" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="134">
+        <v>8</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="135">
         <v>43609</v>
       </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-    </row>
-    <row r="21" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145">
-        <v>6</v>
-      </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="129">
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+    </row>
+    <row r="23" spans="1:17" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134">
+        <v>9</v>
+      </c>
+      <c r="B23" s="134"/>
+      <c r="C23" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="135">
         <v>43609</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-    </row>
-    <row r="22" spans="1:17" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145">
-        <v>8</v>
-      </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="193" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="129">
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+    </row>
+    <row r="24" spans="1:17" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="134">
+        <v>10</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="135">
         <v>43609</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-    </row>
-    <row r="23" spans="1:17" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145">
-        <v>9</v>
-      </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="129">
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+    </row>
+    <row r="25" spans="1:17" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="134">
+        <v>11</v>
+      </c>
+      <c r="B25" s="134"/>
+      <c r="C25" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="135">
         <v>43609</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-    </row>
-    <row r="24" spans="1:17" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="145">
-        <v>10</v>
-      </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="129">
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+    </row>
+    <row r="26" spans="1:17" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="134">
+        <v>12</v>
+      </c>
+      <c r="B26" s="134"/>
+      <c r="C26" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="135">
         <v>43609</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-    </row>
-    <row r="25" spans="1:17" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145">
-        <v>11</v>
-      </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="193" t="s">
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+    </row>
+    <row r="27" spans="1:17" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="134">
+        <v>13</v>
+      </c>
+      <c r="B27" s="134"/>
+      <c r="C27" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="129">
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="135">
         <v>43609</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-    </row>
-    <row r="26" spans="1:17" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="145">
-        <v>12</v>
-      </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-    </row>
-    <row r="27" spans="1:17" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="145">
-        <v>13</v>
-      </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="192" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="185"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="186"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="188"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="191"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="194" t="s">
-        <v>96</v>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="140"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="196"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:G3"/>
@@ -6249,35 +6164,52 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingrese Fecha Ejecución de Pruebas_x000a_DD/MM/AAA" sqref="F16:F27" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -6291,10 +6223,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968B77AF-C59C-4E71-83B4-E2A199DB011B}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6315,147 +6247,147 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="140"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="85"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="str">
+      <c r="A5" s="166" t="str">
         <f>'Resum.Pruebas'!B17</f>
         <v>NOMBRE DE LA PRUEBA</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168" t="str">
         <f>+'Resum.Pruebas'!B18</f>
         <v>Getion de Inventarios</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
     </row>
     <row r="6" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="str">
+      <c r="A7" s="159" t="str">
         <f>'Resum.Pruebas'!E17</f>
         <v>OBJETIVO DE PRUEBA</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="152" t="str">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162" t="str">
         <f>+'Resum.Pruebas'!E18</f>
         <v>Validar el cumplimiento de la funcionaliad  de Gestion de Invetarios</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="165"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="166"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
       <c r="I9" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="177"/>
     </row>
     <row r="11" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="177"/>
     </row>
     <row r="12" spans="1:17" s="24" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="137"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="183"/>
       <c r="F12" s="29" t="s">
         <v>37</v>
       </c>
@@ -6470,502 +6402,429 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="155"/>
     </row>
     <row r="15" spans="1:17" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143" t="s">
+      <c r="B15" s="186"/>
+      <c r="C15" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143" t="s">
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143" t="s">
+      <c r="G15" s="187"/>
+      <c r="H15" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="144"/>
+      <c r="I15" s="188"/>
     </row>
     <row r="16" spans="1:17" ht="324" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145">
+      <c r="A16" s="134">
         <v>1</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="129">
+      <c r="B16" s="134"/>
+      <c r="C16" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="135">
         <v>43609</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="147" t="s">
+      <c r="G16" s="135"/>
+      <c r="H16" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="132"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+    </row>
+    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134">
+        <v>2</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-    </row>
-    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145">
-        <v>2</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="135">
+        <v>43609</v>
+      </c>
+      <c r="G17" s="135"/>
+      <c r="H17" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="129">
+      <c r="I17" s="178"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+    </row>
+    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134">
+        <v>3</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="135">
         <v>43609</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145">
-        <v>3</v>
-      </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146" t="s">
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+    </row>
+    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="134">
+        <v>4</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="129">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="135">
         <v>43609</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-    </row>
-    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145">
-        <v>4</v>
-      </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146" t="s">
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+    </row>
+    <row r="20" spans="1:17" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="134">
+        <v>5</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="129">
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="135">
         <v>43609</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-    </row>
-    <row r="20" spans="1:17" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
-        <v>5</v>
-      </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="172" t="s">
+      <c r="G20" s="135"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+    </row>
+    <row r="21" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134">
+        <v>6</v>
+      </c>
+      <c r="B21" s="134"/>
+      <c r="C21" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="129">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="135">
         <v>43609</v>
       </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-    </row>
-    <row r="21" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145">
-        <v>6</v>
-      </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146" t="s">
+      <c r="G21" s="135"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+    </row>
+    <row r="22" spans="1:17" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="134">
+        <v>7</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="129">
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="135">
         <v>43609</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-    </row>
-    <row r="22" spans="1:17" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173">
-        <v>7</v>
-      </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="129">
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+    </row>
+    <row r="23" spans="1:17" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134">
+        <v>8</v>
+      </c>
+      <c r="B23" s="134"/>
+      <c r="C23" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="135">
         <v>43609</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="179"/>
-    </row>
-    <row r="23" spans="1:17" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145">
-        <v>8</v>
-      </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="193" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="129">
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+    </row>
+    <row r="24" spans="1:17" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="134">
+        <v>9</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="135">
         <v>43609</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-    </row>
-    <row r="24" spans="1:17" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="145">
-        <v>9</v>
-      </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="129">
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+    </row>
+    <row r="25" spans="1:17" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="134">
+        <v>10</v>
+      </c>
+      <c r="B25" s="134"/>
+      <c r="C25" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="135">
         <v>43609</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-    </row>
-    <row r="25" spans="1:17" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145">
-        <v>10</v>
-      </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="193" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="129">
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+    </row>
+    <row r="26" spans="1:17" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="134">
+        <v>11</v>
+      </c>
+      <c r="B26" s="134"/>
+      <c r="C26" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="135">
         <v>43609</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-    </row>
-    <row r="26" spans="1:17" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="145">
-        <v>11</v>
-      </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="193" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="129">
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+    </row>
+    <row r="27" spans="1:17" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="134">
+        <v>12</v>
+      </c>
+      <c r="B27" s="134"/>
+      <c r="C27" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="135">
         <v>43609</v>
       </c>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-    </row>
-    <row r="27" spans="1:17" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="145">
-        <v>12</v>
-      </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-    </row>
-    <row r="28" spans="1:17" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="145">
-        <v>13</v>
-      </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="192" t="s">
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G28" s="129"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="147"/>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="183" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="184"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="185"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="186"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="188"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="189" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="191"/>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="194" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="195"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44" t="s">
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="140"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="181"/>
-      <c r="D36" s="181"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="196"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:Q17"/>
+  <mergeCells count="91">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -6974,29 +6833,72 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingrese Fecha Ejecución de Pruebas_x000a_DD/MM/AAA" sqref="F16:F28" xr:uid="{A91880E0-F5F7-48BA-9FAC-B43ED43805FE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingrese Fecha Ejecución de Pruebas_x000a_DD/MM/AAA" sqref="F16:F27" xr:uid="{A91880E0-F5F7-48BA-9FAC-B43ED43805FE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
@@ -7031,147 +6933,147 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="140"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="85"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="str">
+      <c r="A5" s="166" t="str">
         <f>'Resum.Pruebas'!B17</f>
         <v>NOMBRE DE LA PRUEBA</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168" t="str">
         <f>+'Resum.Pruebas'!B21</f>
         <v>Gestion de Reportes</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
     </row>
     <row r="6" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="str">
+      <c r="A7" s="159" t="str">
         <f>'Resum.Pruebas'!E17</f>
         <v>OBJETIVO DE PRUEBA</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="152" t="str">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162" t="str">
         <f>+'Resum.Pruebas'!E21</f>
         <v>Validar el cumplimiento de la funcionaliad  de Gestion de Reportes</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="165"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="166"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
       <c r="I9" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="177"/>
     </row>
     <row r="11" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="177"/>
     </row>
     <row r="12" spans="1:17" s="24" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="137"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="183"/>
       <c r="F12" s="29" t="s">
         <v>37</v>
       </c>
@@ -7186,232 +7088,229 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="155"/>
     </row>
     <row r="15" spans="1:17" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143" t="s">
+      <c r="B15" s="186"/>
+      <c r="C15" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143" t="s">
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143" t="s">
+      <c r="G15" s="187"/>
+      <c r="H15" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="144"/>
+      <c r="I15" s="188"/>
     </row>
     <row r="16" spans="1:17" ht="324" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145">
+      <c r="A16" s="134">
         <v>1</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="129">
+      <c r="B16" s="134"/>
+      <c r="C16" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="135">
         <v>43609</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="147" t="s">
+      <c r="G16" s="135"/>
+      <c r="H16" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="132"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+    </row>
+    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134">
+        <v>2</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-    </row>
-    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145">
-        <v>2</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="135">
+        <v>43609</v>
+      </c>
+      <c r="G17" s="135"/>
+      <c r="H17" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="129">
+      <c r="I17" s="189"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+    </row>
+    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134">
+        <v>3</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="135">
         <v>43609</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="182" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="182"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145">
-        <v>3</v>
-      </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146" t="s">
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+    </row>
+    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="134">
+        <v>4</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="129">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="135">
         <v>43609</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-    </row>
-    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145">
-        <v>4</v>
-      </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
     </row>
     <row r="21" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="183" t="s">
+      <c r="B22" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="184"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="185"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="186"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="188"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="148"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="191"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="151"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="194" t="s">
-        <v>96</v>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="195"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="140"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="196"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -7420,26 +7319,29 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingrese Fecha Ejecución de Pruebas_x000a_DD/MM/AAA" sqref="F16:F19" xr:uid="{44EB3E44-A67B-454B-A725-4304C022F23F}"/>
@@ -7455,7 +7357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75008CFE-83B0-4874-8467-0B188513B3FF}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
@@ -7477,147 +7379,147 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="140"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="85"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="108"/>
     </row>
     <row r="4" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="str">
+      <c r="A5" s="166" t="str">
         <f>'Resum.Pruebas'!B17</f>
         <v>NOMBRE DE LA PRUEBA</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169" t="str">
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="168" t="str">
         <f>+'Resum.Pruebas'!B20</f>
         <v>Gestion de Facturacion</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
     </row>
     <row r="6" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="str">
+      <c r="A7" s="159" t="str">
         <f>'Resum.Pruebas'!E17</f>
         <v>OBJETIVO DE PRUEBA</v>
       </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="152" t="str">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162" t="str">
         <f>+'Resum.Pruebas'!E20</f>
         <v>Validar el cumplimiento de la funcionaliad  de Gestion de Facturacion</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="165"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="166"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
       <c r="I9" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="157"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="177"/>
     </row>
     <row r="11" spans="1:17" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="177"/>
     </row>
     <row r="12" spans="1:17" s="24" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="137"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="183"/>
       <c r="F12" s="29" t="s">
         <v>37</v>
       </c>
@@ -7632,472 +7534,429 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="155"/>
     </row>
     <row r="15" spans="1:17" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="143" t="s">
+      <c r="B15" s="186"/>
+      <c r="C15" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143" t="s">
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143" t="s">
+      <c r="G15" s="187"/>
+      <c r="H15" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="144"/>
+      <c r="I15" s="188"/>
     </row>
     <row r="16" spans="1:17" ht="324" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="145">
+      <c r="A16" s="134">
         <v>1</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="129">
+      <c r="B16" s="134"/>
+      <c r="C16" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="135">
         <v>43609</v>
       </c>
-      <c r="G16" s="129"/>
-      <c r="H16" s="147" t="s">
+      <c r="G16" s="135"/>
+      <c r="H16" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="132"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+    </row>
+    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134">
+        <v>2</v>
+      </c>
+      <c r="B17" s="134"/>
+      <c r="C17" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-    </row>
-    <row r="17" spans="1:17" ht="357" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145">
-        <v>2</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="135">
+        <v>43609</v>
+      </c>
+      <c r="G17" s="135"/>
+      <c r="H17" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="129">
+      <c r="I17" s="178"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+    </row>
+    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134">
+        <v>3</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="135">
         <v>43609</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="158" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-    </row>
-    <row r="18" spans="1:17" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="145">
-        <v>3</v>
-      </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146" t="s">
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+    </row>
+    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="134">
+        <v>4</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="135">
+        <v>43609</v>
+      </c>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+    </row>
+    <row r="20" spans="1:17" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="134">
+        <v>5</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="129">
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="135">
         <v>43609</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-    </row>
-    <row r="19" spans="1:17" ht="368.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="145">
-        <v>4</v>
-      </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="129">
+      <c r="G20" s="135"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+    </row>
+    <row r="21" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134">
+        <v>6</v>
+      </c>
+      <c r="B21" s="134"/>
+      <c r="C21" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="135">
         <v>43609</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-    </row>
-    <row r="20" spans="1:17" ht="333.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
-        <v>5</v>
-      </c>
-      <c r="B20" s="145"/>
-      <c r="C20" s="172" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="129">
+      <c r="G21" s="135"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+    </row>
+    <row r="22" spans="1:17" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="134">
+        <v>8</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="135">
         <v>43609</v>
       </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="147"/>
-    </row>
-    <row r="21" spans="1:17" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145">
-        <v>6</v>
-      </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="129">
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="137"/>
+    </row>
+    <row r="23" spans="1:17" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134">
+        <v>9</v>
+      </c>
+      <c r="B23" s="134"/>
+      <c r="C23" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="135">
         <v>43609</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-    </row>
-    <row r="22" spans="1:17" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145">
-        <v>8</v>
-      </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="193" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="129">
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+    </row>
+    <row r="24" spans="1:17" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="134">
+        <v>10</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="135">
         <v>43609</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-    </row>
-    <row r="23" spans="1:17" ht="344.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145">
-        <v>9</v>
-      </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="129">
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+    </row>
+    <row r="25" spans="1:17" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="134">
+        <v>11</v>
+      </c>
+      <c r="B25" s="134"/>
+      <c r="C25" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="135">
         <v>43609</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-    </row>
-    <row r="24" spans="1:17" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="145">
-        <v>10</v>
-      </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="129">
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+    </row>
+    <row r="26" spans="1:17" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="134">
+        <v>12</v>
+      </c>
+      <c r="B26" s="134"/>
+      <c r="C26" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="135">
         <v>43609</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-    </row>
-    <row r="25" spans="1:17" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145">
-        <v>11</v>
-      </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="193" t="s">
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+    </row>
+    <row r="27" spans="1:17" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="134">
+        <v>13</v>
+      </c>
+      <c r="B27" s="134"/>
+      <c r="C27" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="129">
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="135">
         <v>43609</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-    </row>
-    <row r="26" spans="1:17" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="145">
-        <v>12</v>
-      </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-    </row>
-    <row r="27" spans="1:17" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="145">
-        <v>13</v>
-      </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="192" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="129">
-        <v>43609</v>
-      </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="185"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="186"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="188"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="189" t="s">
+      <c r="B32" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="191"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="151"/>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="194" t="s">
-        <v>96</v>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="140"/>
     </row>
     <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="196"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -8106,26 +7965,69 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingrese Fecha Ejecución de Pruebas_x000a_DD/MM/AAA" sqref="F16:F27" xr:uid="{6E95BAD7-92CA-443D-9280-4A41759E7DAE}"/>
@@ -8188,15 +8090,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="1daea797-f33a-422c-87bd-6b0176e8eab2">U5673XQXZJVZ-136173706-504</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="1daea797-f33a-422c-87bd-6b0176e8eab2">
-      <Url>http://controldoc.eastus.cloudapp.azure.com/sitios/documentos/_layouts/15/DocIdRedir.aspx?ID=U5673XQXZJVZ-136173706-504</Url>
-      <Description>U5673XQXZJVZ-136173706-504</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8365,12 +8264,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="1daea797-f33a-422c-87bd-6b0176e8eab2">U5673XQXZJVZ-136173706-504</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="1daea797-f33a-422c-87bd-6b0176e8eab2">
+      <Url>http://controldoc.eastus.cloudapp.azure.com/sitios/documentos/_layouts/15/DocIdRedir.aspx?ID=U5673XQXZJVZ-136173706-504</Url>
+      <Description>U5673XQXZJVZ-136173706-504</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8382,17 +8284,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6779C-253F-4DFB-B203-A121A6E83E66}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356BF428-18FF-4FAC-ABD8-FB2CA9917ABD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1daea797-f33a-422c-87bd-6b0176e8eab2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8416,9 +8310,17 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356BF428-18FF-4FAC-ABD8-FB2CA9917ABD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6779C-253F-4DFB-B203-A121A6E83E66}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1daea797-f33a-422c-87bd-6b0176e8eab2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>